--- a/medicine/Mort/Cimetière_communal_de_Clamart/Cimetière_communal_de_Clamart.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Clamart/Cimetière_communal_de_Clamart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Clamart</t>
+          <t>Cimetière_communal_de_Clamart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Clamart se trouve avenue du Général-de-Gaulle à Clamart dans les Hauts-de-Seine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Clamart se trouve avenue du Général-de-Gaulle à Clamart dans les Hauts-de-Seine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Clamart</t>
+          <t>Cimetière_communal_de_Clamart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière succède à l'ancien cimetière de la ville de Clamart, établi dans cette commune de 1793 à 1868 place Jules-Hunebelle, alors place Saint-Pierre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière succède à l'ancien cimetière de la ville de Clamart, établi dans cette commune de 1793 à 1868 place Jules-Hunebelle, alors place Saint-Pierre.
 Une scène du film Inspecteur la Bavure, de Claude Zidi, y a été tournée en 1980.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Clamart</t>
+          <t>Cimetière_communal_de_Clamart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jules Hunnebelle, ancien maire de la ville[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jules Hunnebelle, ancien maire de la ville.
 Dora Maar, photographe, peintre et muse de Pablo Picasso (1907-1997).
-Tombe de la famille Schmauder, le père, la mère et ;eurs deux filles[4], qui faisait partie d'un groupe de quatorze personnes[5], mitraillés le 19 août 1944, rue des Carnets[6].
+Tombe de la famille Schmauder, le père, la mère et ;eurs deux filles, qui faisait partie d'un groupe de quatorze personnes, mitraillés le 19 août 1944, rue des Carnets.
 Bernard Marionnaud, créateur de la chaîne de parfumeries française.
 Pierre-Léon Poilâne, père de Lionel Poilâne.
 Le sculpteur d'origine hongroise András Beck (1911-1985).
